--- a/TA Screener_2/RTM/RTM.xlsx
+++ b/TA Screener_2/RTM/RTM.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\BBINDHU\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{657390C6-7209-4B67-A01D-7550698C9AF0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE88CCF7-D56E-4D34-A645-9C96BE80A4EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -126,9 +126,6 @@
     <t>4.1.6</t>
   </si>
   <si>
-    <t>Up to 20 Stocks()</t>
-  </si>
-  <si>
     <t>TA_07</t>
   </si>
   <si>
@@ -142,6 +139,9 @@
   </si>
   <si>
     <t>IT_08</t>
+  </si>
+  <si>
+    <t>Up to 20 Stocks</t>
   </si>
 </sst>
 </file>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,7 +640,7 @@
         <v>28</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>19</v>
@@ -685,21 +685,21 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A8" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>29</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A9" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>30</v>
@@ -708,7 +708,7 @@
         <v>15</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -717,6 +717,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100733AE12DAED7F44F93E25A75E150E8A2" ma:contentTypeVersion="7" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="5f2901fe94b6a1ebe24fb3f2623f8da3">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="195b1728-e40a-4b73-8d35-ba2418e57bd1" xmlns:ns3="ef049ff0-ed6c-414d-8515-ef774b4481c0" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9ea5b72442e589711b5b04621b238f2c" ns2:_="" ns3:_="">
     <xsd:import namespace="195b1728-e40a-4b73-8d35-ba2418e57bd1"/>
@@ -899,22 +914,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{77D7995D-25FD-4244-A997-6B8BE3362885}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -931,21 +948,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE18EF17-2054-47D8-BF86-187761025201}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A6DD5ECF-BDC1-47FC-86F7-8061971B0019}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>